--- a/org/Voting/Voting.xlsx
+++ b/org/Voting/Voting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1091,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E5" s="1">
         <f>SUM('6'!E5+'5'!E5+'4'!E5+'3'!E5+'2'!E5+'1'!E5)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
